--- a/Tomoru/Bug Reports/Bug reports.xlsx
+++ b/Tomoru/Bug Reports/Bug reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Test-Suites-and-Test-Cases\Tomoru\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532962D1-16FA-44DE-9F15-D057C0920711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B029F59-9816-4341-A5C1-DE71D6A7FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,11 +82,6 @@
     <t>В одном из начальных экранов слово Impact  в тексте не выделено, выглядит вырванным из контекста</t>
   </si>
   <si>
-    <t>1. Запустить Приложение
-2. Нажимать "Далее" до тех пор, пока не появится вкладка "Приглашай друзей"
-3.</t>
-  </si>
-  <si>
     <t>ФР</t>
   </si>
   <si>
@@ -194,6 +189,11 @@
   </si>
   <si>
     <t>Отображается слово "май" и набор разных чисел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Запустить Приложение
+2. Нажимать "Далее" до тех пор, пока не появится вкладка "Приглашай друзей"
+</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -628,160 +628,160 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
